--- a/data/hotels_by_city/Houston/Houston_shard_248.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_248.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d10517328-Reviews-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Four-Points-By-Sheraton-Houston-Energy-Corridor.h15662574.Hotel-Information?chkin=7%2F16%2F2018&amp;chkout=7%2F17%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530980949496&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=e9140e9f-7a87-4e51-b7da-b8dc18d6cdc5&amp;mctc=9&amp;exp_dp=104&amp;exp_ts=1530980950027&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,603 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r589597321-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10517328</t>
+  </si>
+  <si>
+    <t>589597321</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>The location is right off I-10 so very easy to get to. The staff was very helpful with the rooms and the conference. We had a team of around 40+.  Everyone was happy with the rooms and the beds as it's a new Hotel.The facilities for the conference were very well arranged. The staff was was very courteous. They did an amazing job with providing breakfast and snack through out the event. We would love to be back at the Hotel again for our next conference.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r587857733-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587857733</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>CRY America Conference</t>
+  </si>
+  <si>
+    <t>Great and Friendly staff.  Super clean hotel. Really good bar and bartending. The staff provided all great information about the city and things to do. The hotel is really new and I would be coming back again. Breakfast and breakfast staff was great as well. Keep up the good work :)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Great and Friendly staff.  Super clean hotel. Really good bar and bartending. The staff provided all great information about the city and things to do. The hotel is really new and I would be coming back again. Breakfast and breakfast staff was great as well. Keep up the good work :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r586396094-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586396094</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Excellent "Home-like" experience</t>
+  </si>
+  <si>
+    <t>Thank you Four Points Sheraton for the wonderful service you provide always. Great rooms, very clean, amicable staffs and quick service. Amenities are amazing! Looking forward to stay here next time too!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Thank you Four Points Sheraton for the wonderful service you provide always. Great rooms, very clean, amicable staffs and quick service. Amenities are amazing! Looking forward to stay here next time too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r582931455-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582931455</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Terrible Customer Service</t>
+  </si>
+  <si>
+    <t>We had an absolutely terrible customer service experience at this hotel today. We were in town to attend a relatives graduation and were on a very tight schedule. We knew we had to grab breakfast very early this morning and since we had booked our rooms over two months ago and were not sure about what was included, we made sure to ask at check in around 10pm last night if our room included breakfast. We were assured it did and told it opened at 7am. We knew we would have just enough time to grab a muffin or pastry before we had to leave for the graduation. When we attempted to take our 1 muffin per person and leave a worker stopped us and told us we could not leave the dining room. Since we knew we had breakfast included with our room we asked to speak to a manager. She looked it up and apparently the clerk from last night had misinformed us and we actually did not have breakfast included. Now here is where as a business the manager should have said, “I’m so sorry our clerk must have been confused please take a few muffins for the inconvenience” instead we were told we would have to be charged for said muffins. Needless to say we sat the muffins down as I will not be giving another penny to this hotel. If we had been told the...We had an absolutely terrible customer service experience at this hotel today. We were in town to attend a relatives graduation and were on a very tight schedule. We knew we had to grab breakfast very early this morning and since we had booked our rooms over two months ago and were not sure about what was included, we made sure to ask at check in around 10pm last night if our room included breakfast. We were assured it did and told it opened at 7am. We knew we would have just enough time to grab a muffin or pastry before we had to leave for the graduation. When we attempted to take our 1 muffin per person and leave a worker stopped us and told us we could not leave the dining room. Since we knew we had breakfast included with our room we asked to speak to a manager. She looked it up and apparently the clerk from last night had misinformed us and we actually did not have breakfast included. Now here is where as a business the manager should have said, “I’m so sorry our clerk must have been confused please take a few muffins for the inconvenience” instead we were told we would have to be charged for said muffins. Needless to say we sat the muffins down as I will not be giving another penny to this hotel. If we had been told the night before that breakfast was not included we would have either chosen to add breakfast on or have gotten up earlier so we would have time to stop somewhere else. Instead we lost out on breakfast and Marriott lost out on a customer who travels extensively and will never recommend this hotel. Shame on the manager (Claudia) who has no idea how important it is to provide quality customer service and I sincerely hope upper management informs her how situations such as this should be dealt with in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Gary S, Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2018</t>
+  </si>
+  <si>
+    <t>We had an absolutely terrible customer service experience at this hotel today. We were in town to attend a relatives graduation and were on a very tight schedule. We knew we had to grab breakfast very early this morning and since we had booked our rooms over two months ago and were not sure about what was included, we made sure to ask at check in around 10pm last night if our room included breakfast. We were assured it did and told it opened at 7am. We knew we would have just enough time to grab a muffin or pastry before we had to leave for the graduation. When we attempted to take our 1 muffin per person and leave a worker stopped us and told us we could not leave the dining room. Since we knew we had breakfast included with our room we asked to speak to a manager. She looked it up and apparently the clerk from last night had misinformed us and we actually did not have breakfast included. Now here is where as a business the manager should have said, “I’m so sorry our clerk must have been confused please take a few muffins for the inconvenience” instead we were told we would have to be charged for said muffins. Needless to say we sat the muffins down as I will not be giving another penny to this hotel. If we had been told the...We had an absolutely terrible customer service experience at this hotel today. We were in town to attend a relatives graduation and were on a very tight schedule. We knew we had to grab breakfast very early this morning and since we had booked our rooms over two months ago and were not sure about what was included, we made sure to ask at check in around 10pm last night if our room included breakfast. We were assured it did and told it opened at 7am. We knew we would have just enough time to grab a muffin or pastry before we had to leave for the graduation. When we attempted to take our 1 muffin per person and leave a worker stopped us and told us we could not leave the dining room. Since we knew we had breakfast included with our room we asked to speak to a manager. She looked it up and apparently the clerk from last night had misinformed us and we actually did not have breakfast included. Now here is where as a business the manager should have said, “I’m so sorry our clerk must have been confused please take a few muffins for the inconvenience” instead we were told we would have to be charged for said muffins. Needless to say we sat the muffins down as I will not be giving another penny to this hotel. If we had been told the night before that breakfast was not included we would have either chosen to add breakfast on or have gotten up earlier so we would have time to stop somewhere else. Instead we lost out on breakfast and Marriott lost out on a customer who travels extensively and will never recommend this hotel. Shame on the manager (Claudia) who has no idea how important it is to provide quality customer service and I sincerely hope upper management informs her how situations such as this should be dealt with in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r581098471-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581098471</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Three weeks stayed in this hotel and felt so good. Starting our day with the sweet and great Sandra who took care of us very efficiently every morning along with the nice Liliane, beautiful ladies. Then the reception s staffs, Claudia, Christina and Sameer, very helpful and effecient staff, then Sara and Steve taking care of us nicely in the restaurant every evening. Ending with the gentlman Gilbert who drove us from and to the hotel. I m looking forward to see them again. Well done all of you, you did a great job and see you soon againMoreShow less</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Three weeks stayed in this hotel and felt so good. Starting our day with the sweet and great Sandra who took care of us very efficiently every morning along with the nice Liliane, beautiful ladies. Then the reception s staffs, Claudia, Christina and Sameer, very helpful and effecient staff, then Sara and Steve taking care of us nicely in the restaurant every evening. Ending with the gentlman Gilbert who drove us from and to the hotel. I m looking forward to see them again. Well done all of you, you did a great job and see you soon againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r572219738-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572219738</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Great New Hotel</t>
+  </si>
+  <si>
+    <t>Stayed at the property for a business meeting and couldn't have been happier... The staff is excellent, friendly and responsive... The food, both quality and service is greater than a five star... all of this is due to leadership... from the top down, the leader of this hotel is a positive influence on his staff...MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Stayed at the property for a business meeting and couldn't have been happier... The staff is excellent, friendly and responsive... The food, both quality and service is greater than a five star... all of this is due to leadership... from the top down, the leader of this hotel is a positive influence on his staff...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r554615069-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554615069</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Lovely staff and could be 4 plus</t>
+  </si>
+  <si>
+    <t>Had a couple of stay's here recently as my colleague likes to stay here because of a restaurant in walking distance. The main lobby, bar and breakfast area look new but the rooms I had were dated and a little tired. The staff are first rate and I will stay here again as the hotel and rooms are clean and comfortable. Do not believe some of the negativity about this hotel. Breakfast is a good selection and is good quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Had a couple of stay's here recently as my colleague likes to stay here because of a restaurant in walking distance. The main lobby, bar and breakfast area look new but the rooms I had were dated and a little tired. The staff are first rate and I will stay here again as the hotel and rooms are clean and comfortable. Do not believe some of the negativity about this hotel. Breakfast is a good selection and is good quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r547761110-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547761110</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very well located but noisy </t>
+  </si>
+  <si>
+    <t>The experience was good in general, this hotel has a good location but the expressway in front of the hotel makes it noisy. Front desk clerks and restaurant servers were very friendly, definitely I will return and request a room facing the back. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Anthony B, Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>The experience was good in general, this hotel has a good location but the expressway in front of the hotel makes it noisy. Front desk clerks and restaurant servers were very friendly, definitely I will return and request a room facing the back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r534469679-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534469679</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>A bad experience turned into a nice stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I checked-in late and I was given the last room available which turnout to be the relief roomfor hotel staff impacted by Harvey floods (despite having a prepaid booking through Expedia). The room had horrible smell and thanks to the support of Christine in reception I was upgraded an hour later to a proper room. Other than that glitch on arrival, the rest of stay was a positive experience. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r524634892-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>524634892</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Poor Management Left Guests without a Place to Stay</t>
+  </si>
+  <si>
+    <t>This hotel is new and the management is clearly inexperienced. After being flooded out of their home, my parents stayed at the Four Points-Energy Corridor. While staying as guests at the hotel, they found out they could not return home for at least a few weeks. My father called the front desk to extend the reservation and was told that they could stay until the end of the month. Later that day, I went with my parents to confirm the extended reservation. The representative at the front desk looked up their reservation on the computer and told us that we were good until the end of the month. She confirmed that nothing else needed to be done. 3 days later, the hotel told my parents that they couldn't find the extended reservation and denied the exchange with the front desk staff.  Two senior were suddenly left without housing due to mis-management of hotel reservation processes and staff. It's bad enough that the Four Points staff failed to properly communicated the reservation time frame, but it's absolutely egregious for management to flatly deny the incident.  I travel very frequently for work and personal reasons, and because of this exchange I will never stay at a Four Points By Sheraton hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded September 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is new and the management is clearly inexperienced. After being flooded out of their home, my parents stayed at the Four Points-Energy Corridor. While staying as guests at the hotel, they found out they could not return home for at least a few weeks. My father called the front desk to extend the reservation and was told that they could stay until the end of the month. Later that day, I went with my parents to confirm the extended reservation. The representative at the front desk looked up their reservation on the computer and told us that we were good until the end of the month. She confirmed that nothing else needed to be done. 3 days later, the hotel told my parents that they couldn't find the extended reservation and denied the exchange with the front desk staff.  Two senior were suddenly left without housing due to mis-management of hotel reservation processes and staff. It's bad enough that the Four Points staff failed to properly communicated the reservation time frame, but it's absolutely egregious for management to flatly deny the incident.  I travel very frequently for work and personal reasons, and because of this exchange I will never stay at a Four Points By Sheraton hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r521136466-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>521136466</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>the best Place to stay</t>
+  </si>
+  <si>
+    <t>Four Points By Sheraton Houston Energy Corridor is a new facility and is very up to date. The hotel design is very well done and has a welcoming effect. The people at this hotel are some of the nicest people I have every had to deal with- so happy we came her, they have all the services you would need from one of the best gyms I have ever seen, pool, bar, dinning, and free laundry- they also will shuttle you as well.5+ stars ;^)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r520909939-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520909939</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>ABOVE AND BEYOND EXPECTATIONS!</t>
+  </si>
+  <si>
+    <t>I have stayed in many five star hotels around the world, even a "seven" star in Dubai, but my experioence with Four Point Sheraton in the Energy Corridor beats them all. We were forced to evacuate our home during Hurricane Harvey and were lucky enough to obtain a room at this establishment. Many of the staff were not able to come to work due to the city wide flooding. Those employees who were able to get there worked very long hours and many were forced to sleep over. Despite their personal trauma, the staff, without a single exception, were friendly, extremely helpful and very competent. To paraphrase Winston Churchill, "never have so few, worked so hard, to serve so many"! Gary Shultz, the general manager waited on line for several hours at a grocery to obtain enough food to feed his guests. To top things off, unlike many places, in Houston, there was no price gouging here. The hotel kept its very moderate room rates. In summary, my family and I were able to deal with one of the most harrowing experiences of our life  successfully, in no small part, due to the extraordinary efforts of Gary and his staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I have stayed in many five star hotels around the world, even a "seven" star in Dubai, but my experioence with Four Point Sheraton in the Energy Corridor beats them all. We were forced to evacuate our home during Hurricane Harvey and were lucky enough to obtain a room at this establishment. Many of the staff were not able to come to work due to the city wide flooding. Those employees who were able to get there worked very long hours and many were forced to sleep over. Despite their personal trauma, the staff, without a single exception, were friendly, extremely helpful and very competent. To paraphrase Winston Churchill, "never have so few, worked so hard, to serve so many"! Gary Shultz, the general manager waited on line for several hours at a grocery to obtain enough food to feed his guests. To top things off, unlike many places, in Houston, there was no price gouging here. The hotel kept its very moderate room rates. In summary, my family and I were able to deal with one of the most harrowing experiences of our life  successfully, in no small part, due to the extraordinary efforts of Gary and his staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r492035841-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492035841</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Clean,  quiet,  convenient</t>
+  </si>
+  <si>
+    <t>The rooms are spacious and very clean.  For being so close to the highway,  it was pretty quiet.  The only nose i heard was the one coming from the ac units outside. I would try to stay up high, away from elevators.  Food at the restaurant was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded June 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2017</t>
+  </si>
+  <si>
+    <t>The rooms are spacious and very clean.  For being so close to the highway,  it was pretty quiet.  The only nose i heard was the one coming from the ac units outside. I would try to stay up high, away from elevators.  Food at the restaurant was ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r487144422-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487144422</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Clean hotel</t>
+  </si>
+  <si>
+    <t>Stayed one night in this beautiful newer hotel while in town on business. Our room was spotless and quiet (stayed on back side of hotel). Hotel is located right on I-10 with easy access in the energy corridor on the edge of Katy. We had a walk-in shower with complimentary body wash, shampoo,and conditioner. Bathroom had a trendy sliding door. TV channels were limited. Restaurant and bar on site but we did not try. Did not use the pool or fitness facilities either. Staff was courteous. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded June 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2017</t>
+  </si>
+  <si>
+    <t>Stayed one night in this beautiful newer hotel while in town on business. Our room was spotless and quiet (stayed on back side of hotel). Hotel is located right on I-10 with easy access in the energy corridor on the edge of Katy. We had a walk-in shower with complimentary body wash, shampoo,and conditioner. Bathroom had a trendy sliding door. TV channels were limited. Restaurant and bar on site but we did not try. Did not use the pool or fitness facilities either. Staff was courteous. We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r483548773-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483548773</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Staff was great and hotel was very clean,always helpful with transportation(Jeanette) will stay her again on vacation. Breakfast was great as well as Monica for the evening reception that was offered on Wednesday night.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Anthony B, Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Staff was great and hotel was very clean,always helpful with transportation(Jeanette) will stay her again on vacation. Breakfast was great as well as Monica for the evening reception that was offered on Wednesday night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r461961181-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461961181</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl Visit</t>
+  </si>
+  <si>
+    <t>Stayed here while booking last minute to travel for super bowl weekend. This hotel did not disappointment. Had a small issue with our reservation, but nothing too major. Location wasn't too bad and overall decent deal considering booked last minute. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Anthony B, Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here while booking last minute to travel for super bowl weekend. This hotel did not disappointment. Had a small issue with our reservation, but nothing too major. Location wasn't too bad and overall decent deal considering booked last minute. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r461216515-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461216515</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Affordable, Comfortable, Great Amenities</t>
+  </si>
+  <si>
+    <t>As a part of a conference management team, we booked this hotel for an event at the last moment. They were able to give us a great price! The food was decent, the beds were incredibly comfortable - they have a complementary washer and dryer, an incredibly  efficiently stocked gym, and a pool onsite. Parking is great and it's super close to lots of food options. I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>As a part of a conference management team, we booked this hotel for an event at the last moment. They were able to give us a great price! The food was decent, the beds were incredibly comfortable - they have a complementary washer and dryer, an incredibly  efficiently stocked gym, and a pool onsite. Parking is great and it's super close to lots of food options. I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r461190558-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461190558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College conference </t>
+  </si>
+  <si>
+    <t>So incredibly accommodating for our 3 day conference for 60 college students! This was a very short notice booking and they went above and beyond to make sure we were well taken care of and completely satisfied. Beautiful, brand new hotel with excellent staff and services. A great place for personal or business trips! Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>So incredibly accommodating for our 3 day conference for 60 college students! This was a very short notice booking and they went above and beyond to make sure we were well taken care of and completely satisfied. Beautiful, brand new hotel with excellent staff and services. A great place for personal or business trips! Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r461033426-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461033426</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Roks</t>
+  </si>
+  <si>
+    <t>I had a great experience, everyone was very helpful and welcoming! It's very close to the freeway and lots of food places near by. The rooms are spacious and clean. Had a very pleasant stay, would definitely come back. MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a great experience, everyone was very helpful and welcoming! It's very close to the freeway and lots of food places near by. The rooms are spacious and clean. Had a very pleasant stay, would definitely come back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r457864398-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457864398</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Superb stay!</t>
+  </si>
+  <si>
+    <t>We stayed overnight here and were totally satisfied with our stay. We stayed using SPG points and had a king supreme room which had a queen sofabed in it as well as the King bed. Had a comfy sleep in the king bed and there was lots of space in the room. Had an in room safe, microwave and small fridge. Breakfast was not included for us but could be purchased for $12 per person. We chose not to have the breakfast so unable to comment on it. The hotel was right off the I10 interstate highway which was very convenient for us. Definitely recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed overnight here and were totally satisfied with our stay. We stayed using SPG points and had a king supreme room which had a queen sofabed in it as well as the King bed. Had a comfy sleep in the king bed and there was lots of space in the room. Had an in room safe, microwave and small fridge. Breakfast was not included for us but could be purchased for $12 per person. We chose not to have the breakfast so unable to comment on it. The hotel was right off the I10 interstate highway which was very convenient for us. Definitely recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r451799144-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451799144</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>horrible night</t>
+  </si>
+  <si>
+    <t>You do indeed get what you pay for. We usually stay at a Westin at the Galleria.  However, I had business in the energy corridor, and this hotel was nearly half what the Westin costs for our nights stay.  At check-in, I asked if we had any upgraded room and was told that none were available (despite their being about 15-20 cars in the parking lot).  I had requested a quiet room, and was given one in the front of the hotel (w/ soothing sounds of freeway).  I asked for a room in the back of the hotel, and was give a room 2/3 the length of the first room. The reason the room length or size is important is because cheap hotels such as this have in room A/C-HVAC. These units blow on and off all night, usually creating a wind across your body when in bed.  I may have dozed for 5 minute intervals throughout the night, perhaps when the winds died down.  I do not recommend this hotel if you are seeking a place to sleep.  The bed was reasonably comfortable.  The electrical supply was ridiculous - on/off switches for the entire room at the door.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Anthony B, Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded January 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2017</t>
+  </si>
+  <si>
+    <t>You do indeed get what you pay for. We usually stay at a Westin at the Galleria.  However, I had business in the energy corridor, and this hotel was nearly half what the Westin costs for our nights stay.  At check-in, I asked if we had any upgraded room and was told that none were available (despite their being about 15-20 cars in the parking lot).  I had requested a quiet room, and was given one in the front of the hotel (w/ soothing sounds of freeway).  I asked for a room in the back of the hotel, and was give a room 2/3 the length of the first room. The reason the room length or size is important is because cheap hotels such as this have in room A/C-HVAC. These units blow on and off all night, usually creating a wind across your body when in bed.  I may have dozed for 5 minute intervals throughout the night, perhaps when the winds died down.  I do not recommend this hotel if you are seeking a place to sleep.  The bed was reasonably comfortable.  The electrical supply was ridiculous - on/off switches for the entire room at the door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r442164609-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442164609</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>I stayed in this beautiful hotel with my husband and 4 kids, 2 connected rooms, they were well equipped and comfortable.Fortunately everything about the hotel was exceptional, and I do not give praise lightly, the receptionist was very friendly and helpful. I was impressed by all of the staff within the hotel. The rooms were very comfortable in every way. The maids ensured my rooms were immaculate on a daily basis.Hotel was impeccable clean, stylish, roomy with excellent service in the restaurant where we had a delicious breakfast and a delightful dinner. Food was beyond good and great value for money and service, attentive and efficient.Rooms/ baths were very clean and comfortable and spacious. The indoor pool was great, large, clean and warm too, it was a great way to end the day and so much fun for the kids.I could go on but I would like to say that I was very pleased with my stay, and although it was short  this time, I hope to be back for a longer visit in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in this beautiful hotel with my husband and 4 kids, 2 connected rooms, they were well equipped and comfortable.Fortunately everything about the hotel was exceptional, and I do not give praise lightly, the receptionist was very friendly and helpful. I was impressed by all of the staff within the hotel. The rooms were very comfortable in every way. The maids ensured my rooms were immaculate on a daily basis.Hotel was impeccable clean, stylish, roomy with excellent service in the restaurant where we had a delicious breakfast and a delightful dinner. Food was beyond good and great value for money and service, attentive and efficient.Rooms/ baths were very clean and comfortable and spacious. The indoor pool was great, large, clean and warm too, it was a great way to end the day and so much fun for the kids.I could go on but I would like to say that I was very pleased with my stay, and although it was short  this time, I hope to be back for a longer visit in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r441841400-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441841400</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>I love new properties!</t>
+  </si>
+  <si>
+    <t>All new designs. Heated indoor pool. Lots of places available, if you just want to sit for a while, and read, or watch television. Huda, at front desk, was super-friendly, and helpful. Everything is still shiny and new. Television in room was huge, with awesome picture!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>All new designs. Heated indoor pool. Lots of places available, if you just want to sit for a while, and read, or watch television. Huda, at front desk, was super-friendly, and helpful. Everything is still shiny and new. Television in room was huge, with awesome picture!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r441550341-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441550341</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Great Brand New Hotel in Energy Corridor</t>
+  </si>
+  <si>
+    <t>Stayed at Brand New Four Points in the Energy Corridor.  The rooms are amazing, terrific sheet sets and gorgeous bathroom.  Each room has fresh air piped into it ( no stale hotel air) and each room has a ceiling fan!! The hotel staff are amazing and very friendly.  The Bar/restaurant has terrific food, plenty of big screen TVs, local craft beer on tap  and a real comfortable "homey" feeling.  Have been back for Happy Hour Wednesdays with small bites and wine/beer discounts.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stayed at Brand New Four Points in the Energy Corridor.  The rooms are amazing, terrific sheet sets and gorgeous bathroom.  Each room has fresh air piped into it ( no stale hotel air) and each room has a ceiling fan!! The hotel staff are amazing and very friendly.  The Bar/restaurant has terrific food, plenty of big screen TVs, local craft beer on tap  and a real comfortable "homey" feeling.  Have been back for Happy Hour Wednesdays with small bites and wine/beer discounts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r427163084-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427163084</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Brilliant new hotel in energy corridor</t>
+  </si>
+  <si>
+    <t>Enjoyed the small amenities that are unique . Showers with dispensers, TVs with large selection of programming, comfortable beds for family, staff ever ready to help. Great bar downstairs. Enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Enjoyed the small amenities that are unique . Showers with dispensers, TVs with large selection of programming, comfortable beds for family, staff ever ready to help. Great bar downstairs. Enjoyable stay.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1138,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1170,1650 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>176</v>
+      </c>
+      <c r="X20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>201</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>176</v>
+      </c>
+      <c r="X21" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>209</v>
+      </c>
+      <c r="X22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>218</v>
+      </c>
+      <c r="X25" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>233</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_248.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_248.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,24 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r607520518-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10517328</t>
+  </si>
+  <si>
+    <t>607520518</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location off of the I-10. Super friendly staff. The room was immaculate and extremely well decorated. The hotel has a bar and kitchen (Jackie the bartender is awesome, my cup was always refilled and she takes care of her customers). A breakfast buffet is only included for certain rates. Or you can pay $12/person. Indoor pool and fitness center. The hotel was able to accommodate my oversized pickup truck with 24’ trailer. They even have a roving security guard in the parking lot at night. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r589607439-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589607439</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Poor Restaurant</t>
+  </si>
+  <si>
+    <t>Clean hotel, great location, but I stay here for the onsite restaurant.  Nope, not again.  The restaurant has gone down hill to slow service, slow food prep, and then the food is not good.  I gave it a try two times, the first time I sat and waited for ten-minutes and finally got up a left after simply being ignored by the servers.  Then, the second night I did get served, it took forever to get the food and then it sucked.  I'm done, no more.  There are too many hotels in the area to deal with this.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Clean hotel, great location, but I stay here for the onsite restaurant.  Nope, not again.  The restaurant has gone down hill to slow service, slow food prep, and then the food is not good.  I gave it a try two times, the first time I sat and waited for ten-minutes and finally got up a left after simply being ignored by the servers.  Then, the second night I did get served, it took forever to get the food and then it sucked.  I'm done, no more.  There are too many hotels in the area to deal with this.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r589597321-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>10517328</t>
-  </si>
-  <si>
     <t>589597321</t>
   </si>
   <si>
-    <t>06/21/2018</t>
-  </si>
-  <si>
     <t>Conference</t>
   </si>
   <si>
@@ -177,9 +225,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r587857733-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -231,6 +276,69 @@
     <t>Thank you Four Points Sheraton for the wonderful service you provide always. Great rooms, very clean, amicable staffs and quick service. Amenities are amazing! Looking forward to stay here next time too!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r586395199-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586395199</t>
+  </si>
+  <si>
+    <t>Awesome stay... highly recommended.</t>
+  </si>
+  <si>
+    <t>Very comfortable stay, staff were super courteous and prompt.The rooms are really nice.We had a fairly large group and we were very well taken care of.Felt very comfortable and I am definitely staying here for all my Houston trip!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Very comfortable stay, staff were super courteous and prompt.The rooms are really nice.We had a fairly large group and we were very well taken care of.Felt very comfortable and I am definitely staying here for all my Houston trip!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r585314787-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585314787</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Very clean and great service</t>
+  </si>
+  <si>
+    <t>I stayed here for a conference meet. The staff is very friendly. Rooms are clean and food was really tasty. The front desk staff always accomodated my requests. I would highly recommend this Hotel for a family and business stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a conference meet. The staff is very friendly. Rooms are clean and food was really tasty. The front desk staff always accomodated my requests. I would highly recommend this Hotel for a family and business stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r584440999-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584440999</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Great hotel and front desk service</t>
+  </si>
+  <si>
+    <t>Absolutely lovely hotel. I enjoyed my stay here, would definitely recommend this hotel. I was down in Katy for a conference, being new to the city this hotel felt just like home with such friendly and helpful staff. The front desk, Sameer such a sweet kid was very helpful in helping me check-in, extending my stay and any transportation issues I had. Thanks to Claudia for helping me resolve any other little issues that I had. The rooms are clean and the room service staff is really friendly as well. I will definitely stay again when back. Overall a great hotel with a great staff that makes sure your stay is comfortable and memorable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Absolutely lovely hotel. I enjoyed my stay here, would definitely recommend this hotel. I was down in Katy for a conference, being new to the city this hotel felt just like home with such friendly and helpful staff. The front desk, Sameer such a sweet kid was very helpful in helping me check-in, extending my stay and any transportation issues I had. Thanks to Claudia for helping me resolve any other little issues that I had. The rooms are clean and the room service staff is really friendly as well. I will definitely stay again when back. Overall a great hotel with a great staff that makes sure your stay is comfortable and memorable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r582931455-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -246,12 +354,6 @@
     <t>We had an absolutely terrible customer service experience at this hotel today. We were in town to attend a relatives graduation and were on a very tight schedule. We knew we had to grab breakfast very early this morning and since we had booked our rooms over two months ago and were not sure about what was included, we made sure to ask at check in around 10pm last night if our room included breakfast. We were assured it did and told it opened at 7am. We knew we would have just enough time to grab a muffin or pastry before we had to leave for the graduation. When we attempted to take our 1 muffin per person and leave a worker stopped us and told us we could not leave the dining room. Since we knew we had breakfast included with our room we asked to speak to a manager. She looked it up and apparently the clerk from last night had misinformed us and we actually did not have breakfast included. Now here is where as a business the manager should have said, “I’m so sorry our clerk must have been confused please take a few muffins for the inconvenience” instead we were told we would have to be charged for said muffins. Needless to say we sat the muffins down as I will not be giving another penny to this hotel. If we had been told the...We had an absolutely terrible customer service experience at this hotel today. We were in town to attend a relatives graduation and were on a very tight schedule. We knew we had to grab breakfast very early this morning and since we had booked our rooms over two months ago and were not sure about what was included, we made sure to ask at check in around 10pm last night if our room included breakfast. We were assured it did and told it opened at 7am. We knew we would have just enough time to grab a muffin or pastry before we had to leave for the graduation. When we attempted to take our 1 muffin per person and leave a worker stopped us and told us we could not leave the dining room. Since we knew we had breakfast included with our room we asked to speak to a manager. She looked it up and apparently the clerk from last night had misinformed us and we actually did not have breakfast included. Now here is where as a business the manager should have said, “I’m so sorry our clerk must have been confused please take a few muffins for the inconvenience” instead we were told we would have to be charged for said muffins. Needless to say we sat the muffins down as I will not be giving another penny to this hotel. If we had been told the night before that breakfast was not included we would have either chosen to add breakfast on or have gotten up earlier so we would have time to stop somewhere else. Instead we lost out on breakfast and Marriott lost out on a customer who travels extensively and will never recommend this hotel. Shame on the manager (Claudia) who has no idea how important it is to provide quality customer service and I sincerely hope upper management informs her how situations such as this should be dealt with in the future. MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Gary S, Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded May 27, 2018</t>
   </si>
   <si>
@@ -309,6 +411,57 @@
     <t>Stayed at the property for a business meeting and couldn't have been happier... The staff is excellent, friendly and responsive... The food, both quality and service is greater than a five star... all of this is due to leadership... from the top down, the leader of this hotel is a positive influence on his staff...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r557345196-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557345196</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Nice stay!</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable. Hotel has a nice feel. Staff was friendly and efficient. Breakfast was surprisingly good with fresh fruit, cooked-to-order eggs and good coffee. I would certainly stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable. Hotel has a nice feel. Staff was friendly and efficient. Breakfast was surprisingly good with fresh fruit, cooked-to-order eggs and good coffee. I would certainly stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r556569356-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556569356</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>The staff makes the difference</t>
+  </si>
+  <si>
+    <t>I stayed in Four Points Katy Fwy three nights for business meetings (in the hotel) and the hotel is like most business hotels. Although I have to mention that the beds are on the top I've ever slept in.So, what sets the Katy apart from the other hotels here...Simply.... the staff.They are as friendly and helpful is you rarely find these daysWould I come back on my next visit to Houston.... you'll betMoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded January 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2018</t>
+  </si>
+  <si>
+    <t>I stayed in Four Points Katy Fwy three nights for business meetings (in the hotel) and the hotel is like most business hotels. Although I have to mention that the beds are on the top I've ever slept in.So, what sets the Katy apart from the other hotels here...Simply.... the staff.They are as friendly and helpful is you rarely find these daysWould I come back on my next visit to Houston.... you'll betMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r554615069-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -324,9 +477,6 @@
     <t>Had a couple of stay's here recently as my colleague likes to stay here because of a restaurant in walking distance. The main lobby, bar and breakfast area look new but the rooms I had were dated and a little tired. The staff are first rate and I will stay here again as the hotel and rooms are clean and comfortable. Do not believe some of the negativity about this hotel. Breakfast is a good selection and is good quality.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded January 19, 2018</t>
   </si>
   <si>
@@ -354,9 +504,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Anthony B, Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded December 18, 2017</t>
   </si>
   <si>
@@ -381,6 +528,45 @@
     <t xml:space="preserve">I checked-in late and I was given the last room available which turnout to be the relief roomfor hotel staff impacted by Harvey floods (despite having a prepaid booking through Expedia). The room had horrible smell and thanks to the support of Christine in reception I was upgraded an hour later to a proper room. Other than that glitch on arrival, the rest of stay was a positive experience. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r526750998-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526750998</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>The hotel has good location, and clean room.  Very friendly and helpful staff, specially Jeanette on the front desk. She helped us to solve the booking issue we had. We will definitely stay here again next time.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r525577730-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525577730</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Best bang for the buck... Almost..</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during hurricane Harvey, and they did everything to make our stay as pleasent as possible. The location is great, minutes away from the Energy Corridor, if not whithin the EC...The hotel is surprisingly quiet, given its proximity to the very busy I-10 freeway. Everything is new and shiny. The internet is free, parking free as well, they have a pretty good bar downstairs, an indoor pool and a gym. The breakfast is buffet style, serving scrambled eggs, bacon, sausages, cereals, pastries, fresh fruits, etc. Compared with other hotels the breakfast is slightly more expensive, but will definitely not break the bank. The waiters are always around, ready to accommodate any requests of the customers.Great value, great quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during hurricane Harvey, and they did everything to make our stay as pleasent as possible. The location is great, minutes away from the Energy Corridor, if not whithin the EC...The hotel is surprisingly quiet, given its proximity to the very busy I-10 freeway. Everything is new and shiny. The internet is free, parking free as well, they have a pretty good bar downstairs, an indoor pool and a gym. The breakfast is buffet style, serving scrambled eggs, bacon, sausages, cereals, pastries, fresh fruits, etc. Compared with other hotels the breakfast is slightly more expensive, but will definitely not break the bank. The waiters are always around, ready to accommodate any requests of the customers.Great value, great quality.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r524634892-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -396,9 +582,6 @@
     <t>This hotel is new and the management is clearly inexperienced. After being flooded out of their home, my parents stayed at the Four Points-Energy Corridor. While staying as guests at the hotel, they found out they could not return home for at least a few weeks. My father called the front desk to extend the reservation and was told that they could stay until the end of the month. Later that day, I went with my parents to confirm the extended reservation. The representative at the front desk looked up their reservation on the computer and told us that we were good until the end of the month. She confirmed that nothing else needed to be done. 3 days later, the hotel told my parents that they couldn't find the extended reservation and denied the exchange with the front desk staff.  Two senior were suddenly left without housing due to mis-management of hotel reservation processes and staff. It's bad enough that the Four Points staff failed to properly communicated the reservation time frame, but it's absolutely egregious for management to flatly deny the incident.  I travel very frequently for work and personal reasons, and because of this exchange I will never stay at a Four Points By Sheraton hotel again.MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded September 16, 2017</t>
   </si>
   <si>
@@ -438,12 +621,45 @@
     <t>I have stayed in many five star hotels around the world, even a "seven" star in Dubai, but my experioence with Four Point Sheraton in the Energy Corridor beats them all. We were forced to evacuate our home during Hurricane Harvey and were lucky enough to obtain a room at this establishment. Many of the staff were not able to come to work due to the city wide flooding. Those employees who were able to get there worked very long hours and many were forced to sleep over. Despite their personal trauma, the staff, without a single exception, were friendly, extremely helpful and very competent. To paraphrase Winston Churchill, "never have so few, worked so hard, to serve so many"! Gary Shultz, the general manager waited on line for several hours at a grocery to obtain enough food to feed his guests. To top things off, unlike many places, in Houston, there was no price gouging here. The hotel kept its very moderate room rates. In summary, my family and I were able to deal with one of the most harrowing experiences of our life  successfully, in no small part, due to the extraordinary efforts of Gary and his staff.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>I have stayed in many five star hotels around the world, even a "seven" star in Dubai, but my experioence with Four Point Sheraton in the Energy Corridor beats them all. We were forced to evacuate our home during Hurricane Harvey and were lucky enough to obtain a room at this establishment. Many of the staff were not able to come to work due to the city wide flooding. Those employees who were able to get there worked very long hours and many were forced to sleep over. Despite their personal trauma, the staff, without a single exception, were friendly, extremely helpful and very competent. To paraphrase Winston Churchill, "never have so few, worked so hard, to serve so many"! Gary Shultz, the general manager waited on line for several hours at a grocery to obtain enough food to feed his guests. To top things off, unlike many places, in Houston, there was no price gouging here. The hotel kept its very moderate room rates. In summary, my family and I were able to deal with one of the most harrowing experiences of our life  successfully, in no small part, due to the extraordinary efforts of Gary and his staff.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r519360963-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519360963</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Excellent support, excellent attention, I will come back always</t>
+  </si>
+  <si>
+    <t>Jeanette, the GM on charge were focus, were kind and gave me an excellent service and support, the hotel is brand new, perfect location and the culture of all the employees is influenced by the GM and Jeannette, thank you and congratulations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r496218396-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496218396</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and Modern</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 3 nights during a business trip in Katy. The hotel is very new and modern, with stylish rooms and overall a good quality to it. The restaurant/bar downstairs has friendly staff and a good selection of food &amp; drink. Easy access from IH-10; the window shade in the room only blocked out some of the light/sound, but I slept fine. Plenty of pillows provided and super comfortable bed. I elected to decline room service and received $5 coupons each night, which were redeemable at the 'convenience store' in the lobby - very handy for grabbing a snack the morning of my flight home! Wifi worked well, the gym was well-appointed, and overall I had a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 3 nights during a business trip in Katy. The hotel is very new and modern, with stylish rooms and overall a good quality to it. The restaurant/bar downstairs has friendly staff and a good selection of food &amp; drink. Easy access from IH-10; the window shade in the room only blocked out some of the light/sound, but I slept fine. Plenty of pillows provided and super comfortable bed. I elected to decline room service and received $5 coupons each night, which were redeemable at the 'convenience store' in the lobby - very handy for grabbing a snack the morning of my flight home! Wifi worked well, the gym was well-appointed, and overall I had a great stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r492035841-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -459,9 +675,6 @@
     <t>The rooms are spacious and very clean.  For being so close to the highway,  it was pretty quiet.  The only nose i heard was the one coming from the ac units outside. I would try to stay up high, away from elevators.  Food at the restaurant was ok.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded June 17, 2017</t>
   </si>
   <si>
@@ -525,6 +738,51 @@
     <t>Staff was great and hotel was very clean,always helpful with transportation(Jeanette) will stay her again on vacation. Breakfast was great as well as Monica for the evening reception that was offered on Wednesday night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r482112163-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482112163</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Friendly environment hotel</t>
+  </si>
+  <si>
+    <t>All the team is really great, friendly and helpful.I used it for the OTC timing and I booked 7 rooms and they were available on time with any changeable with a great rate compared to the hotels around. If i will want to thank the team working their, i will start with The front desk.Valentina, Christina &amp; Huda. From the breakfast, Melissa &amp; Steven. From the security Mr marshal and Steven. From the management Mr. Marlon , Miss. Donnisha.They all do take care of the hotel and their clients.The breakfast is really delicious and different than the other hotels around.The security was awake all night protecting my truck.The bed is really comfortable with the big TV. The hotel is new and the team is taking good care of it and working on fixing any comments you usually give.MoreShow less</t>
+  </si>
+  <si>
+    <t>All the team is really great, friendly and helpful.I used it for the OTC timing and I booked 7 rooms and they were available on time with any changeable with a great rate compared to the hotels around. If i will want to thank the team working their, i will start with The front desk.Valentina, Christina &amp; Huda. From the breakfast, Melissa &amp; Steven. From the security Mr marshal and Steven. From the management Mr. Marlon , Miss. Donnisha.They all do take care of the hotel and their clients.The breakfast is really delicious and different than the other hotels around.The security was awake all night protecting my truck.The bed is really comfortable with the big TV. The hotel is new and the team is taking good care of it and working on fixing any comments you usually give.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r469513987-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469513987</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>We had business meetings in Houston. We stayed here since it was close to the office. The rooms are very clean and newly updated. Comfortable beds, nice bathroom with large showers. The restaurant downstairs had good food, a little pricey for what you get.  Check in was quick and easy. A nice stay for the price. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Anthony B, Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>We had business meetings in Houston. We stayed here since it was close to the office. The rooms are very clean and newly updated. Comfortable beds, nice bathroom with large showers. The restaurant downstairs had good food, a little pricey for what you get.  Check in was quick and easy. A nice stay for the price. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r461961181-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -588,15 +846,45 @@
     <t>So incredibly accommodating for our 3 day conference for 60 college students! This was a very short notice booking and they went above and beyond to make sure we were well taken care of and completely satisfied. Beautiful, brand new hotel with excellent staff and services. A great place for personal or business trips! Highly recommend!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r461061159-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461061159</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIESEC Conference </t>
+  </si>
+  <si>
+    <t>This hotel was the venue for an AIESEC regional conference. The staff was very friendly and very accommodating to our requests. The interior was clean and the perfect size for us. Overall great hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was the venue for an AIESEC regional conference. The staff was very friendly and very accommodating to our requests. The interior was clean and the perfect size for us. Overall great hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r461049400-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461049400</t>
+  </si>
+  <si>
+    <t>So Nice of A Venue!</t>
+  </si>
+  <si>
+    <t>This was such a great place on a sort notice and a tight budget. The whole staff was very nice and helpful and everyone was supper accommodating! The account manager was always available and fixed anything we needed to. I have never stayed at a place as beautiful!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was such a great place on a sort notice and a tight budget. The whole staff was very nice and helpful and everyone was supper accommodating! The account manager was always available and fixed anything we needed to. I have never stayed at a place as beautiful!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r461033426-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
     <t>461033426</t>
   </si>
   <si>
-    <t>02/18/2017</t>
-  </si>
-  <si>
     <t>Roks</t>
   </si>
   <si>
@@ -654,6 +942,57 @@
     <t>You do indeed get what you pay for. We usually stay at a Westin at the Galleria.  However, I had business in the energy corridor, and this hotel was nearly half what the Westin costs for our nights stay.  At check-in, I asked if we had any upgraded room and was told that none were available (despite their being about 15-20 cars in the parking lot).  I had requested a quiet room, and was given one in the front of the hotel (w/ soothing sounds of freeway).  I asked for a room in the back of the hotel, and was give a room 2/3 the length of the first room. The reason the room length or size is important is because cheap hotels such as this have in room A/C-HVAC. These units blow on and off all night, usually creating a wind across your body when in bed.  I may have dozed for 5 minute intervals throughout the night, perhaps when the winds died down.  I do not recommend this hotel if you are seeking a place to sleep.  The bed was reasonably comfortable.  The electrical supply was ridiculous - on/off switches for the entire room at the door.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r450046926-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450046926</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Brand new Starwood hotel near shopping malls, outlets, hospitals in West Houston</t>
+  </si>
+  <si>
+    <t>The hotel locates at a very convenient location, near Katy Mill outlet, one of the biggest shopping outlets.  in Houston! It's also right across the Children  Hospital and Methodist hospital as well! On top of that, the hotel provides complimentary shuttle service anywhere within the radius of 10 min travel time! An excellent and very helpful service with really nice and genuinely caring staffs who drove the shuttle! I think one of the best assets this hotel has is its staffs. The receptionists were always helpful and provided me with the best assistance they could offer, especially Anthony, the front desk manager and Huda and one more lady that I could not recall her name! All the hotel facilities are brand new. Room is pretty good size with really nice and clean bath room.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded January 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2017</t>
+  </si>
+  <si>
+    <t>The hotel locates at a very convenient location, near Katy Mill outlet, one of the biggest shopping outlets.  in Houston! It's also right across the Children  Hospital and Methodist hospital as well! On top of that, the hotel provides complimentary shuttle service anywhere within the radius of 10 min travel time! An excellent and very helpful service with really nice and genuinely caring staffs who drove the shuttle! I think one of the best assets this hotel has is its staffs. The receptionists were always helpful and provided me with the best assistance they could offer, especially Anthony, the front desk manager and Huda and one more lady that I could not recall her name! All the hotel facilities are brand new. Room is pretty good size with really nice and clean bath room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r444344729-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444344729</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>When is a Four Points not a Four Points</t>
+  </si>
+  <si>
+    <t>I have stayed at many a Starwood property in my time from the Lanesborough to my fair share of Four Points. I tip my hat to the team at the Four Points in the Energy Sector, Houston. The hotel itself is just like all the other Four Points (I have to say that I do like the new designs but of course it's cookie-cutter and operated to a budget) and the water pressure in the shower totally sucks. But what makes this one special is the staff - in particular Huda on checkin desk and Steven behind the bar. Two more cheerful and friendly team members I have met in a couple of hundred  hotel stays. MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded December 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed at many a Starwood property in my time from the Lanesborough to my fair share of Four Points. I tip my hat to the team at the Four Points in the Energy Sector, Houston. The hotel itself is just like all the other Four Points (I have to say that I do like the new designs but of course it's cookie-cutter and operated to a budget) and the water pressure in the shower totally sucks. But what makes this one special is the staff - in particular Huda on checkin desk and Steven behind the bar. Two more cheerful and friendly team members I have met in a couple of hundred  hotel stays. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r442164609-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -696,9 +1035,6 @@
     <t>All new designs. Heated indoor pool. Lots of places available, if you just want to sit for a while, and read, or watch television. Huda, at front desk, was super-friendly, and helpful. Everything is still shiny and new. Television in room was huge, with awesome picture!MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>All new designs. Heated indoor pool. Lots of places available, if you just want to sit for a while, and read, or watch television. Huda, at front desk, was super-friendly, and helpful. Everything is still shiny and new. Television in room was huge, with awesome picture!More</t>
   </si>
   <si>
@@ -721,6 +1057,51 @@
   </si>
   <si>
     <t>Stayed at Brand New Four Points in the Energy Corridor.  The rooms are amazing, terrific sheet sets and gorgeous bathroom.  Each room has fresh air piped into it ( no stale hotel air) and each room has a ceiling fan!! The hotel staff are amazing and very friendly.  The Bar/restaurant has terrific food, plenty of big screen TVs, local craft beer on tap  and a real comfortable "homey" feeling.  Have been back for Happy Hour Wednesdays with small bites and wine/beer discounts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r431182873-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431182873</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Solid Four Points</t>
+  </si>
+  <si>
+    <t>This brand new Four Points is a decent hotel with a few minor things that could be improved - 1) The TV is too low relative to the bed in the room I stayed in. This causes the screen to be blocked by your feet when watching from the bed. 2) The synthetic 'ding' made by the elevator as it passes each floor is loud and very grating when heading to the office in the morning. 3) Despite the parking lot being mostly empty and the hotel seeming to be very quiet, I was told that no upgrades were available. I know the evidence is anecdotal, but it seemed odd. 4) There is a lot of noise from the Highway outside. Aside from that, the experience was fine - new property with new furniture, linens etc., ample parking etc. In any case, the commuter traffic going from this property east on I-10 at any time after 6:30am is really heavy and not compatible with my schedule so I will probably not stay here too much.MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>This brand new Four Points is a decent hotel with a few minor things that could be improved - 1) The TV is too low relative to the bed in the room I stayed in. This causes the screen to be blocked by your feet when watching from the bed. 2) The synthetic 'ding' made by the elevator as it passes each floor is loud and very grating when heading to the office in the morning. 3) Despite the parking lot being mostly empty and the hotel seeming to be very quiet, I was told that no upgrades were available. I know the evidence is anecdotal, but it seemed odd. 4) There is a lot of noise from the Highway outside. Aside from that, the experience was fine - new property with new furniture, linens etc., ample parking etc. In any case, the commuter traffic going from this property east on I-10 at any time after 6:30am is really heavy and not compatible with my schedule so I will probably not stay here too much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r430741136-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430741136</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Best hotel stay ever!! Family of 5..</t>
+  </si>
+  <si>
+    <t>Staff were super friendly,  room was extremely clean and we'll organized. My three girls enjoyed the pool, and gym is very spacious with lots of equipment. Will be back to stay here again, can't beat the price with the luxury you receive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Four Points By Sheraton Houston Energy Corridor, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Staff were super friendly,  room was extremely clean and we'll organized. My three girls enjoyed the pool, and gym is very spacious with lots of equipment. Will be back to stay here again, can't beat the price with the luxury you receive.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10517328-r427163084-Four_Points_By_Sheraton_Houston_Energy_Corridor-Houston_Texas.html</t>
@@ -1288,17 +1669,11 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1342,13 +1717,13 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1360,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1382,7 +1757,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1391,10 +1766,10 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -1406,28 +1781,30 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1443,7 +1820,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1452,25 +1829,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1482,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1504,7 +1881,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1513,25 +1890,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1543,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1565,7 +1942,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1574,47 +1951,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1630,7 +2003,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1639,47 +2012,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1695,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1704,43 +2073,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1756,7 +2131,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1765,22 +2140,26 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1790,10 +2169,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +2192,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1818,47 +2201,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1874,7 +2253,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1883,33 +2262,31 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -1918,10 +2295,14 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -1937,7 +2318,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1946,31 +2327,31 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>136</v>
       </c>
-      <c r="J13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" t="s">
-        <v>139</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>140</v>
-      </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
@@ -1981,10 +2362,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -2000,7 +2385,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2009,43 +2394,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
         <v>143</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>144</v>
       </c>
-      <c r="K14" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" t="s">
-        <v>146</v>
-      </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -2061,7 +2452,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2070,43 +2461,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
         <v>152</v>
       </c>
-      <c r="J15" t="s">
-        <v>153</v>
-      </c>
-      <c r="K15" t="s">
-        <v>154</v>
-      </c>
-      <c r="L15" t="s">
-        <v>155</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -2122,7 +2517,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2131,47 +2526,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
         <v>161</v>
       </c>
-      <c r="J16" t="s">
-        <v>162</v>
-      </c>
-      <c r="K16" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" t="s">
-        <v>164</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>165</v>
-      </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -2187,7 +2578,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2196,47 +2587,35 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>174</v>
-      </c>
-      <c r="O17" t="s">
-        <v>175</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>176</v>
-      </c>
-      <c r="X17" t="s">
-        <v>177</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -2252,7 +2631,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2261,49 +2640,45 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>176</v>
-      </c>
-      <c r="X18" t="s">
-        <v>177</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
@@ -2319,7 +2694,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2328,25 +2703,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>181</v>
       </c>
-      <c r="K19" t="s">
-        <v>187</v>
-      </c>
-      <c r="L19" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>174</v>
-      </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2357,14 +2732,10 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>176</v>
-      </c>
-      <c r="X19" t="s">
-        <v>177</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
@@ -2380,7 +2751,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2389,43 +2760,47 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="X20" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -2441,7 +2816,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2450,43 +2825,45 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>201</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>176</v>
-      </c>
-      <c r="X21" t="s">
-        <v>177</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -2502,7 +2879,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2511,47 +2888,45 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>209</v>
-      </c>
-      <c r="X22" t="s">
-        <v>210</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
@@ -2567,7 +2942,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2576,25 +2951,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2611,14 +2986,10 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>218</v>
-      </c>
-      <c r="X23" t="s">
-        <v>219</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -2634,7 +3005,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2643,49 +3014,45 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>218</v>
-      </c>
-      <c r="X24" t="s">
-        <v>219</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
@@ -2701,7 +3068,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2710,49 +3077,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="O25" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="X25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
@@ -2768,7 +3129,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2777,25 +3138,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2807,13 +3168,1232 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
+        <v>228</v>
+      </c>
+      <c r="X26" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
         <v>240</v>
       </c>
-      <c r="X26" t="s">
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
         <v>241</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="J28" t="s">
         <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>237</v>
+      </c>
+      <c r="X28" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>252</v>
+      </c>
+      <c r="X29" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>261</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>262</v>
+      </c>
+      <c r="X30" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>267</v>
+      </c>
+      <c r="K31" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>260</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>262</v>
+      </c>
+      <c r="X31" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>262</v>
+      </c>
+      <c r="X32" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>260</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>262</v>
+      </c>
+      <c r="X33" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" t="s">
+        <v>278</v>
+      </c>
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>262</v>
+      </c>
+      <c r="X34" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>288</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>289</v>
+      </c>
+      <c r="L35" t="s">
+        <v>290</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>260</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>262</v>
+      </c>
+      <c r="X35" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>293</v>
+      </c>
+      <c r="J36" t="s">
+        <v>294</v>
+      </c>
+      <c r="K36" t="s">
+        <v>295</v>
+      </c>
+      <c r="L36" t="s">
+        <v>296</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>260</v>
+      </c>
+      <c r="O36" t="s">
+        <v>297</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>262</v>
+      </c>
+      <c r="X36" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>300</v>
+      </c>
+      <c r="J37" t="s">
+        <v>301</v>
+      </c>
+      <c r="K37" t="s">
+        <v>302</v>
+      </c>
+      <c r="L37" t="s">
+        <v>303</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>305</v>
+      </c>
+      <c r="X37" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" t="s">
+        <v>310</v>
+      </c>
+      <c r="K38" t="s">
+        <v>311</v>
+      </c>
+      <c r="L38" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>313</v>
+      </c>
+      <c r="O38" t="s">
+        <v>103</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>314</v>
+      </c>
+      <c r="X38" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>313</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>322</v>
+      </c>
+      <c r="X39" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>326</v>
+      </c>
+      <c r="J40" t="s">
+        <v>327</v>
+      </c>
+      <c r="K40" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s">
+        <v>329</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s">
+        <v>103</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>331</v>
+      </c>
+      <c r="X40" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s">
+        <v>338</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>313</v>
+      </c>
+      <c r="O41" t="s">
+        <v>103</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>331</v>
+      </c>
+      <c r="X41" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>340</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>341</v>
+      </c>
+      <c r="J42" t="s">
+        <v>342</v>
+      </c>
+      <c r="K42" t="s">
+        <v>343</v>
+      </c>
+      <c r="L42" t="s">
+        <v>344</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>345</v>
+      </c>
+      <c r="O42" t="s">
+        <v>261</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>331</v>
+      </c>
+      <c r="X42" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>348</v>
+      </c>
+      <c r="J43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43" t="s">
+        <v>351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>345</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>352</v>
+      </c>
+      <c r="X43" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>356</v>
+      </c>
+      <c r="J44" t="s">
+        <v>357</v>
+      </c>
+      <c r="K44" t="s">
+        <v>358</v>
+      </c>
+      <c r="L44" t="s">
+        <v>359</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>345</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>360</v>
+      </c>
+      <c r="X44" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64206</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>363</v>
+      </c>
+      <c r="J45" t="s">
+        <v>364</v>
+      </c>
+      <c r="K45" t="s">
+        <v>365</v>
+      </c>
+      <c r="L45" t="s">
+        <v>366</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>345</v>
+      </c>
+      <c r="O45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X45" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
